--- a/barometer_data/barometer.xlsx
+++ b/barometer_data/barometer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\espaceData\w00482475\uamodeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\opcua-modeler\barometer_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -377,7 +377,7 @@
     <col min="2" max="2" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,368 +385,332 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>108100.60992333591</v>
       </c>
-      <c r="C2">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>104100.23599306188</v>
       </c>
-      <c r="C3">
-        <f>$C2 - 40</f>
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>100100.97053332638</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C29" si="0">$C3 - 40</f>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5">
         <v>96100.621063586645</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6">
         <v>92100.756267092598</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7">
         <v>88100.04861523</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
         <v>84100.41327082488</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
         <v>80100.016248919957</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
         <v>76100.666979810572</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11">
         <v>72100.446166062509</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12">
         <v>68100.83663898916</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
         <v>64100.692533226967</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14">
         <v>60100.398452946531</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15">
         <v>56100.063110924617</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16">
         <v>52100.079922588404</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17">
         <v>48100.085681626842</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18">
         <v>44100.275587591699</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19">
         <v>40100.662947548095</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20">
         <v>36100.000125470819</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21">
         <v>32100.477793537673</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22">
         <v>28100.250148966967</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23">
         <v>24100.912915075205</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24">
         <v>20100.924633438946</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25">
         <v>16100.32922837707</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26">
         <v>12100.597057267871</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27">
         <v>8100.6668690881161</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28">
         <v>4100.0647702106098</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29">
         <v>100.28242097753662</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
       <c r="B30">
         <v>0.74979961214787294</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
       <c r="B31">
         <v>1E-3</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
       <c r="B32">
         <v>1E-3</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33">
         <v>1E-3</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
       <c r="B34">
         <v>1E-3</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
       <c r="B35">
         <v>1E-3</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36">
         <v>1E-3</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
       <c r="B37">
         <v>1E-3</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="B38">
         <v>1E-3</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="B39">
         <v>1E-3</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40">
         <v>1E-3</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41">
         <v>1E-3</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
       <c r="B42">
         <v>1E-3</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,7 +734,7 @@
     <col min="2" max="2" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,381 +742,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>100.77946648863606</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.1</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>4100.6448473817873</v>
       </c>
-      <c r="C3">
-        <f>$C2 + 40</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.2</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>8100.6339367605733</v>
       </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C28" si="0">$C3 + 40</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>12100.847182363637</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>16100.543687655447</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>20100.725557340607</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>24100.736132706155</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>28100.151789033313</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>32100.66564361066</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>36100.169293663166</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>40100.53820934688</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>44100.123057116391</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>48100.855529340442</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>52100.922247634619</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>56100.053964266946</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>60100.325511662275</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>64100.444069969577</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>68100.522775480742</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>72100.684972044721</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>721</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>76100.554573289264</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>761</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>80100.079804827692</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>84100.081262154054</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>841</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>88100.799483186202</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>881</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>92100.243066724972</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>921</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>96100.501937693523</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>100100.14453804443</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>104100.93080325388</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>108100.54056740855</v>
       </c>
-      <c r="C29">
-        <f>$C28 + 40</f>
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>108200.26370534525</v>
       </c>
-      <c r="C30">
-        <f>$C29 + 1</f>
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>108300.61520194843</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C42" si="1">$C30 + 1</f>
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>108400.31564294809</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>108500.23036186495</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>108600.2932425805</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>108700.51537253447</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>108800.56711145198</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>108900.3822151143</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>109000.80516340314</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>109100.73435645553</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>109200.58712573374</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>109300.74916743238</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>109400.41434074556</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>1094</v>
       </c>
     </row>
   </sheetData>
